--- a/server/Data2025/Data2025/Checkin_2025.xlsx
+++ b/server/Data2025/Data2025/Checkin_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEB\LuckyDraw.ES.2025\server\Data2025\Data2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C51E62-A409-4F9E-9B78-CFD8E78B1405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D4AD59-EBD5-40DD-8E4B-973F3E9768F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2295" yWindow="4635" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,12 +41,6 @@
     <t>Id</t>
   </si>
   <si>
-    <t>Thời gian bắt đầu</t>
-  </si>
-  <si>
-    <t>Thời gian hoàn thành</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -2523,6 +2517,12 @@
   </si>
   <si>
     <t>FullName</t>
+  </si>
+  <si>
+    <t>Checkin</t>
+  </si>
+  <si>
+    <t>Checkout</t>
   </si>
 </sst>
 </file>
@@ -2623,14 +2623,14 @@
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Thời gian bắt đầu">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Checkin">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="startDate"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Thời gian hoàn thành">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Checkout">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="submitDate"/>
@@ -2982,8 +2982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D182" sqref="D182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3001,22 +3001,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>827</v>
+      </c>
+      <c r="C1" t="s">
+        <v>828</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="F1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G1" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3030,16 +3030,16 @@
         <v>45658.999421296299</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -3053,16 +3053,16 @@
         <v>45659.003240740698</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3076,16 +3076,16 @@
         <v>45659.007060069445</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F4" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3099,16 +3099,16 @@
         <v>45659.010879456022</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3122,16 +3122,16 @@
         <v>45659.014698842591</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F6" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3145,16 +3145,16 @@
         <v>45659.018518229168</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -3168,16 +3168,16 @@
         <v>45659.022337615737</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F8" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3191,16 +3191,16 @@
         <v>45659.026157002314</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -3214,16 +3214,16 @@
         <v>45659.029976388891</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F10" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3237,16 +3237,16 @@
         <v>45659.03379577546</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3260,16 +3260,16 @@
         <v>45659.037615162037</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F12" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3283,16 +3283,16 @@
         <v>45659.041434548613</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -3306,16 +3306,16 @@
         <v>45659.045253935183</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F14" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -3329,16 +3329,16 @@
         <v>45659.049073321759</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -3352,16 +3352,16 @@
         <v>45659.052892708336</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F16" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -3375,16 +3375,16 @@
         <v>45659.056712094905</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -3398,16 +3398,16 @@
         <v>45659.060531481482</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -3421,16 +3421,16 @@
         <v>45659.064350868059</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -3444,16 +3444,16 @@
         <v>45659.068170254628</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F20" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -3467,16 +3467,16 @@
         <v>45659.071989641205</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -3490,16 +3490,16 @@
         <v>45659.075809027781</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F22" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -3513,16 +3513,16 @@
         <v>45659.079628414351</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -3536,16 +3536,16 @@
         <v>45659.083447800927</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F24" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -3559,16 +3559,16 @@
         <v>45659.087267187497</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -3582,16 +3582,16 @@
         <v>45659.091086574073</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F26" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -3605,16 +3605,16 @@
         <v>45659.09490596065</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -3628,16 +3628,16 @@
         <v>45659.098725347219</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F28" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G28" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -3651,16 +3651,16 @@
         <v>45659.102544733796</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -3674,16 +3674,16 @@
         <v>45659.106364120373</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F30" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G30" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -3697,16 +3697,16 @@
         <v>45659.110183506942</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -3720,16 +3720,16 @@
         <v>45659.114002893519</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F32" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G32" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -3743,16 +3743,16 @@
         <v>45659.117822280095</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -3766,16 +3766,16 @@
         <v>45659.121641666665</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F34" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G34" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -3789,16 +3789,16 @@
         <v>45659.125461053241</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -3812,16 +3812,16 @@
         <v>45659.129280439818</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F36" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G36" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -3835,16 +3835,16 @@
         <v>45659.133099826387</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -3858,16 +3858,16 @@
         <v>45659.136919212964</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F38" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G38" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -3881,16 +3881,16 @@
         <v>45659.140738599534</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -3904,16 +3904,16 @@
         <v>45659.14455798611</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F40" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G40" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -3927,16 +3927,16 @@
         <v>45659.148377372687</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -3950,16 +3950,16 @@
         <v>45659.152196759256</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F42" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G42" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -3973,16 +3973,16 @@
         <v>45659.156016145833</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -3996,16 +3996,16 @@
         <v>45659.159835532409</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F44" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G44" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -4019,16 +4019,16 @@
         <v>45659.163654918979</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -4042,16 +4042,16 @@
         <v>45659.167474305556</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F46" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G46" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -4065,16 +4065,16 @@
         <v>45659.171293692132</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -4088,16 +4088,16 @@
         <v>45659.175113078702</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F48" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G48" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -4111,16 +4111,16 @@
         <v>45659.178932465278</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -4134,16 +4134,16 @@
         <v>45659.182751851855</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F50" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G50" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -4157,16 +4157,16 @@
         <v>45659.186571238424</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -4180,16 +4180,16 @@
         <v>45659.190390625001</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F52" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G52" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -4203,16 +4203,16 @@
         <v>45659.194210011578</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -4226,16 +4226,16 @@
         <v>45659.198029398147</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F54" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G54" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -4249,16 +4249,16 @@
         <v>45659.201848784724</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -4272,16 +4272,16 @@
         <v>45659.205668171293</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F56" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G56" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -4295,16 +4295,16 @@
         <v>45659.20948755787</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -4318,16 +4318,16 @@
         <v>45659.213306944446</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F58" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G58" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -4341,16 +4341,16 @@
         <v>45659.217126331016</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -4364,16 +4364,16 @@
         <v>45659.220945717592</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F60" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G60" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -4387,16 +4387,16 @@
         <v>45659.224765104169</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -4410,16 +4410,16 @@
         <v>45659.228584490738</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F62" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G62" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -4433,16 +4433,16 @@
         <v>45659.232403877315</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -4456,16 +4456,16 @@
         <v>45659.236223263892</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F64" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G64" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -4479,16 +4479,16 @@
         <v>45659.240042650461</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -4502,16 +4502,16 @@
         <v>45659.243862037038</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F66" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G66" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -4525,16 +4525,16 @@
         <v>45659.247681423614</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -4548,16 +4548,16 @@
         <v>45659.251500810184</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F68" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G68" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -4571,16 +4571,16 @@
         <v>45659.25532019676</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -4594,16 +4594,16 @@
         <v>45659.259139583337</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F70" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G70" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -4617,16 +4617,16 @@
         <v>45659.262958969906</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -4640,16 +4640,16 @@
         <v>45659.266778356483</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F72" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G72" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -4663,16 +4663,16 @@
         <v>45659.270597743052</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -4686,16 +4686,16 @@
         <v>45659.274417129629</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F74" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G74" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -4709,16 +4709,16 @@
         <v>45659.278236516206</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -4732,16 +4732,16 @@
         <v>45659.282055902775</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F76" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G76" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -4755,16 +4755,16 @@
         <v>45659.285875289352</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -4778,16 +4778,16 @@
         <v>45659.289694675928</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F78" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G78" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -4801,16 +4801,16 @@
         <v>45659.293514062498</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -4824,16 +4824,16 @@
         <v>45659.297333449074</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F80" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G80" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -4847,16 +4847,16 @@
         <v>45659.301152835651</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -4870,16 +4870,16 @@
         <v>45659.30497222222</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F82" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G82" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -4893,16 +4893,16 @@
         <v>45659.308791608797</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -4916,16 +4916,16 @@
         <v>45659.312610995374</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F84" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G84" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -4939,16 +4939,16 @@
         <v>45659.316430381943</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -4962,16 +4962,16 @@
         <v>45659.32024976852</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F86" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G86" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -4985,16 +4985,16 @@
         <v>45659.324069155089</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -5008,16 +5008,16 @@
         <v>45659.327888541666</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F88" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G88" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -5031,16 +5031,16 @@
         <v>45659.331707928242</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -5054,16 +5054,16 @@
         <v>45659.335527314812</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F90" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G90" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -5077,16 +5077,16 @@
         <v>45659.339346701388</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -5100,16 +5100,16 @@
         <v>45659.343166087965</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F92" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G92" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -5123,16 +5123,16 @@
         <v>45659.346985474534</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -5146,16 +5146,16 @@
         <v>45659.350804861111</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F94" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G94" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -5169,16 +5169,16 @@
         <v>45659.354624247688</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -5192,16 +5192,16 @@
         <v>45659.358443634257</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F96" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G96" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -5215,16 +5215,16 @@
         <v>45659.362263020834</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -5238,16 +5238,16 @@
         <v>45659.36608240741</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F98" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G98" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -5261,16 +5261,16 @@
         <v>45659.36990179398</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -5284,16 +5284,16 @@
         <v>45659.373721180556</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F100" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G100" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -5307,16 +5307,16 @@
         <v>45659.377540567133</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -5330,16 +5330,16 @@
         <v>45659.381359953702</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F102" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G102" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -5353,16 +5353,16 @@
         <v>45659.385179340279</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -5376,16 +5376,16 @@
         <v>45659.388998726849</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F104" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G104" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -5399,16 +5399,16 @@
         <v>45659.392818113425</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -5422,16 +5422,16 @@
         <v>45659.396637500002</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F106" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G106" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -5445,16 +5445,16 @@
         <v>45659.400456886571</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -5468,16 +5468,16 @@
         <v>45659.404276273148</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F108" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G108" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -5491,16 +5491,16 @@
         <v>45659.408095659724</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -5514,16 +5514,16 @@
         <v>45659.411915046294</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F110" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G110" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -5537,16 +5537,16 @@
         <v>45659.415734432871</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -5560,16 +5560,16 @@
         <v>45659.419553819447</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F112" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G112" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -5583,16 +5583,16 @@
         <v>45659.423373206017</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -5606,16 +5606,16 @@
         <v>45659.427192592593</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F114" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G114" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -5629,16 +5629,16 @@
         <v>45659.43101197917</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -5652,16 +5652,16 @@
         <v>45659.434831365739</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F116" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G116" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -5675,16 +5675,16 @@
         <v>45659.438650752316</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -5698,16 +5698,16 @@
         <v>45659.442470138893</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F118" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G118" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -5721,16 +5721,16 @@
         <v>45659.446289525462</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -5744,16 +5744,16 @@
         <v>45659.450108912039</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F120" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G120" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -5767,16 +5767,16 @@
         <v>45659.453928298608</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -5790,16 +5790,16 @@
         <v>45659.457747685185</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F122" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G122" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -5813,16 +5813,16 @@
         <v>45659.461567071761</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -5836,16 +5836,16 @@
         <v>45659.465386458331</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F124" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G124" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -5859,16 +5859,16 @@
         <v>45659.469205844907</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
@@ -5882,16 +5882,16 @@
         <v>45659.473025231484</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F126" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G126" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
@@ -5905,16 +5905,16 @@
         <v>45659.476844618053</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
@@ -5928,16 +5928,16 @@
         <v>45659.48066400463</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F128" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G128" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
@@ -5951,16 +5951,16 @@
         <v>45659.484483391207</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
@@ -5974,16 +5974,16 @@
         <v>45659.488302777776</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F130" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G130" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
@@ -5997,16 +5997,16 @@
         <v>45659.492122164353</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
@@ -6020,16 +6020,16 @@
         <v>45659.495941550929</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F132" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G132" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
@@ -6043,16 +6043,16 @@
         <v>45659.499760937499</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
@@ -6066,16 +6066,16 @@
         <v>45659.503580324075</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F134" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G134" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
@@ -6089,16 +6089,16 @@
         <v>45659.507399710645</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
@@ -6112,16 +6112,16 @@
         <v>45659.511219097221</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F136" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G136" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
@@ -6135,16 +6135,16 @@
         <v>45659.515038483798</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
@@ -6158,16 +6158,16 @@
         <v>45659.518857870367</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F138" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G138" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
@@ -6181,16 +6181,16 @@
         <v>45659.522677256944</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
@@ -6204,16 +6204,16 @@
         <v>45659.526496643521</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F140" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G140" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
@@ -6227,16 +6227,16 @@
         <v>45659.53031603009</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
@@ -6250,16 +6250,16 @@
         <v>45659.534135416667</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F142" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G142" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
@@ -6273,16 +6273,16 @@
         <v>45659.537954803243</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
@@ -6296,16 +6296,16 @@
         <v>45659.541774189813</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F144" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G144" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
@@ -6319,16 +6319,16 @@
         <v>45659.545593576389</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
@@ -6342,16 +6342,16 @@
         <v>45659.549412962966</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F146" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G146" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
@@ -6365,16 +6365,16 @@
         <v>45659.553232349535</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
@@ -6388,16 +6388,16 @@
         <v>45659.557051736112</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F148" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G148" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
@@ -6411,16 +6411,16 @@
         <v>45659.560871122689</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
@@ -6434,16 +6434,16 @@
         <v>45659.564690509258</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F150" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G150" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
@@ -6457,16 +6457,16 @@
         <v>45659.568509895835</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
@@ -6480,16 +6480,16 @@
         <v>45659.572329282404</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F152" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G152" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
@@ -6503,16 +6503,16 @@
         <v>45659.576148668981</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
@@ -6526,16 +6526,16 @@
         <v>45659.579968055557</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F154" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G154" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
@@ -6549,16 +6549,16 @@
         <v>45659.583787442127</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
@@ -6572,16 +6572,16 @@
         <v>45659.587606828703</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F156" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G156" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
@@ -6595,16 +6595,16 @@
         <v>45659.59142621528</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
@@ -6618,16 +6618,16 @@
         <v>45659.595245601849</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F158" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G158" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
@@ -6641,16 +6641,16 @@
         <v>45659.599064988426</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
@@ -6664,16 +6664,16 @@
         <v>45659.602884375003</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F160" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G160" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
@@ -6687,16 +6687,16 @@
         <v>45659.606703761572</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
@@ -6710,16 +6710,16 @@
         <v>45659.610523148149</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F162" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G162" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
@@ -6733,16 +6733,16 @@
         <v>45659.614342534725</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
@@ -6756,16 +6756,16 @@
         <v>45659.618161921295</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F164" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G164" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
@@ -6779,16 +6779,16 @@
         <v>45659.621981307871</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
@@ -6802,16 +6802,16 @@
         <v>45659.625800694441</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F166" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G166" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
@@ -6825,16 +6825,16 @@
         <v>45659.629620081017</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
@@ -6848,16 +6848,16 @@
         <v>45659.633439467594</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F168" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G168" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
@@ -6871,16 +6871,16 @@
         <v>45659.637258854164</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
@@ -6894,16 +6894,16 @@
         <v>45659.64107824074</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F170" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G170" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
@@ -6917,16 +6917,16 @@
         <v>45659.644897627317</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
@@ -6940,16 +6940,16 @@
         <v>45659.648717013886</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F172" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G172" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
@@ -6963,16 +6963,16 @@
         <v>45659.652536400463</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
@@ -6986,16 +6986,16 @@
         <v>45659.65635578704</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F174" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G174" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
@@ -7009,16 +7009,16 @@
         <v>45659.660175173609</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
@@ -7032,16 +7032,16 @@
         <v>45659.663994560186</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F176" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G176" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
@@ -7055,16 +7055,16 @@
         <v>45659.667813946762</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
@@ -7078,16 +7078,16 @@
         <v>45659.671633333332</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F178" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G178" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
@@ -7101,16 +7101,16 @@
         <v>45659.675452719908</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
@@ -7124,16 +7124,16 @@
         <v>45659.679272106485</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F180" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G180" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
@@ -7147,16 +7147,16 @@
         <v>45659.683091493054</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
@@ -7170,16 +7170,16 @@
         <v>45659.686910879631</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F182" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G182" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
@@ -7193,16 +7193,16 @@
         <v>45659.6907302662</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
@@ -7216,16 +7216,16 @@
         <v>45659.694549652777</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F184" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G184" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
@@ -7239,16 +7239,16 @@
         <v>45659.698369039354</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
@@ -7262,16 +7262,16 @@
         <v>45659.702188425923</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F186" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G186" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
@@ -7285,16 +7285,16 @@
         <v>45659.7060078125</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
@@ -7308,16 +7308,16 @@
         <v>45659.709827199076</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F188" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G188" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
@@ -7331,16 +7331,16 @@
         <v>45659.713646585646</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
@@ -7354,16 +7354,16 @@
         <v>45659.717465972222</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F190" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G190" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
@@ -7377,16 +7377,16 @@
         <v>45659.721285358799</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
@@ -7400,16 +7400,16 @@
         <v>45659.725104745368</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F192" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G192" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
@@ -7423,16 +7423,16 @@
         <v>45659.728924131945</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
@@ -7446,16 +7446,16 @@
         <v>45659.732743518522</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F194" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G194" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
@@ -7469,16 +7469,16 @@
         <v>45659.736562905091</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
@@ -7492,16 +7492,16 @@
         <v>45659.740382291668</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F196" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G196" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
@@ -7515,16 +7515,16 @@
         <v>45659.744201678244</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
@@ -7538,16 +7538,16 @@
         <v>45659.748021064814</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F198" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G198" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
@@ -7561,16 +7561,16 @@
         <v>45659.75184045139</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
@@ -7584,16 +7584,16 @@
         <v>45659.75565983796</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F200" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G200" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
@@ -7607,16 +7607,16 @@
         <v>45659.759479224536</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
@@ -7630,16 +7630,16 @@
         <v>45659.763298611113</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F202" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G202" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
@@ -7653,16 +7653,16 @@
         <v>45659.767117997682</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
@@ -7676,16 +7676,16 @@
         <v>45659.770937384259</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F204" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G204" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
@@ -7699,16 +7699,16 @@
         <v>45659.774756770836</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
@@ -7722,16 +7722,16 @@
         <v>45659.778576157405</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F206" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G206" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
@@ -7745,16 +7745,16 @@
         <v>45659.782395543982</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
@@ -7768,16 +7768,16 @@
         <v>45659.786214930558</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F208" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G208" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
@@ -7791,16 +7791,16 @@
         <v>45659.790034317128</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
@@ -7814,16 +7814,16 @@
         <v>45659.793853703704</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F210" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G210" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
@@ -7837,16 +7837,16 @@
         <v>45659.797673090281</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
@@ -7860,16 +7860,16 @@
         <v>45659.80149247685</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F212" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G212" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
@@ -7883,16 +7883,16 @@
         <v>45659.805311863427</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
@@ -7906,16 +7906,16 @@
         <v>45659.809131249996</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F214" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G214" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
@@ -7929,16 +7929,16 @@
         <v>45659.812950636573</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
@@ -7952,16 +7952,16 @@
         <v>45659.81677002315</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F216" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G216" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
@@ -7975,16 +7975,16 @@
         <v>45659.820589409719</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
@@ -7998,16 +7998,16 @@
         <v>45659.824408796296</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F218" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G218" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
@@ -8021,16 +8021,16 @@
         <v>45659.828228182872</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
@@ -8044,16 +8044,16 @@
         <v>45659.832047569442</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F220" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G220" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
@@ -8067,16 +8067,16 @@
         <v>45659.835866956018</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
@@ -8090,16 +8090,16 @@
         <v>45659.839686342595</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F222" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G222" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
@@ -8113,16 +8113,16 @@
         <v>45659.843505729164</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
@@ -8136,16 +8136,16 @@
         <v>45659.847325115741</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F224" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G224" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
@@ -8159,16 +8159,16 @@
         <v>45659.851144502318</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
@@ -8182,16 +8182,16 @@
         <v>45659.854963888887</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F226" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G226" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
@@ -8205,16 +8205,16 @@
         <v>45659.858783275464</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
@@ -8228,16 +8228,16 @@
         <v>45659.86260266204</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F228" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G228" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
@@ -8251,16 +8251,16 @@
         <v>45659.86642204861</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
@@ -8274,16 +8274,16 @@
         <v>45659.870241435186</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F230" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G230" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
@@ -8297,16 +8297,16 @@
         <v>45659.874060821756</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
@@ -8320,16 +8320,16 @@
         <v>45659.877880208332</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F232" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G232" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
@@ -8343,16 +8343,16 @@
         <v>45659.881699594909</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
@@ -8366,16 +8366,16 @@
         <v>45659.885518981479</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F234" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G234" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
@@ -8389,16 +8389,16 @@
         <v>45659.889338368055</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
@@ -8412,16 +8412,16 @@
         <v>45659.893157754632</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F236" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G236" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
@@ -8435,16 +8435,16 @@
         <v>45659.896977141201</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
@@ -8458,16 +8458,16 @@
         <v>45659.900796527778</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F238" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G238" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
@@ -8481,16 +8481,16 @@
         <v>45659.904615914355</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
@@ -8504,16 +8504,16 @@
         <v>45659.908435300924</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F240" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G240" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
@@ -8527,16 +8527,16 @@
         <v>45659.912254687501</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
@@ -8550,16 +8550,16 @@
         <v>45659.916074074077</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F242" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G242" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
@@ -8573,16 +8573,16 @@
         <v>45659.919893460647</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
@@ -8596,16 +8596,16 @@
         <v>45659.923712847223</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F244" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G244" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
@@ -8619,16 +8619,16 @@
         <v>45659.9275322338</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
@@ -8642,16 +8642,16 @@
         <v>45659.931351620369</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F246" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G246" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
@@ -8665,16 +8665,16 @@
         <v>45659.935171006946</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
@@ -8688,16 +8688,16 @@
         <v>45659.938990393515</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F248" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G248" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
@@ -8711,16 +8711,16 @@
         <v>45659.942809780092</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
@@ -8734,16 +8734,16 @@
         <v>45659.946629166669</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F250" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G250" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
@@ -8757,16 +8757,16 @@
         <v>45659.950448553238</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
@@ -8780,16 +8780,16 @@
         <v>45659.954267939815</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F252" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G252" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
@@ -8803,16 +8803,16 @@
         <v>45659.958087326391</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
@@ -8826,16 +8826,16 @@
         <v>45659.961906712961</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F254" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G254" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
@@ -8849,16 +8849,16 @@
         <v>45659.965726099537</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
@@ -8872,16 +8872,16 @@
         <v>45659.969545486114</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F256" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G256" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
@@ -8895,16 +8895,16 @@
         <v>45659.973364872683</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
@@ -8918,16 +8918,16 @@
         <v>45659.97718425926</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F258" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G258" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
@@ -8941,16 +8941,16 @@
         <v>45659.981003645837</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
@@ -8964,16 +8964,16 @@
         <v>45659.984823032406</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F260" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G260" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
@@ -8987,16 +8987,16 @@
         <v>45659.988642418983</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
@@ -9010,16 +9010,16 @@
         <v>45659.992461805552</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F262" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G262" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
@@ -9033,16 +9033,16 @@
         <v>45659.996281192129</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
@@ -9056,16 +9056,16 @@
         <v>45660.000100578705</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F264" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G264" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
@@ -9079,16 +9079,16 @@
         <v>45660.003919965275</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
@@ -9102,16 +9102,16 @@
         <v>45660.007739351851</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F266" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G266" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
@@ -9125,16 +9125,16 @@
         <v>45660.011558738428</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
@@ -9148,16 +9148,16 @@
         <v>45660.015378124997</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F268" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G268" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
@@ -9171,16 +9171,16 @@
         <v>45660.019197511574</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
@@ -9194,16 +9194,16 @@
         <v>45660.023016898151</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F270" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G270" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
@@ -9217,16 +9217,16 @@
         <v>45660.02683628472</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
@@ -9240,16 +9240,16 @@
         <v>45660.030655671297</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="F272" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G272" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
@@ -9263,16 +9263,16 @@
         <v>45660.034475057873</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
@@ -9286,16 +9286,16 @@
         <v>45660.038294444443</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F274" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G274" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
@@ -9309,16 +9309,16 @@
         <v>45660.042113831019</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
@@ -9332,16 +9332,16 @@
         <v>45660.045933217596</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F276" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G276" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
@@ -9355,16 +9355,16 @@
         <v>45660.049752604165</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
@@ -9378,16 +9378,16 @@
         <v>45660.053571990742</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F278" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G278" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
@@ -9401,16 +9401,16 @@
         <v>45660.057391377311</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
@@ -9424,16 +9424,16 @@
         <v>45660.061210763888</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F280" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G280" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
@@ -9447,16 +9447,16 @@
         <v>45660.065030150465</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
@@ -9470,16 +9470,16 @@
         <v>45660.068849537034</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F282" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G282" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
@@ -9493,16 +9493,16 @@
         <v>45660.072668923611</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
@@ -9516,16 +9516,16 @@
         <v>45660.076488310187</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F284" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G284" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
@@ -9539,16 +9539,16 @@
         <v>45660.080307696757</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.2">
@@ -9562,16 +9562,16 @@
         <v>45660.084127083333</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F286" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G286" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
@@ -9585,16 +9585,16 @@
         <v>45660.08794646991</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.2">
@@ -9608,16 +9608,16 @@
         <v>45660.091765856479</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F288" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G288" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
@@ -9631,16 +9631,16 @@
         <v>45660.095585243056</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
@@ -9654,16 +9654,16 @@
         <v>45660.099404629633</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F290" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G290" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
@@ -9677,16 +9677,16 @@
         <v>45660.103224016202</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
@@ -9700,16 +9700,16 @@
         <v>45660.107043402779</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F292" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G292" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
@@ -9723,16 +9723,16 @@
         <v>45660.110862789355</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
@@ -9746,16 +9746,16 @@
         <v>45660.114682175925</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F294" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G294" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
@@ -9769,16 +9769,16 @@
         <v>45660.118501562501</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
@@ -9792,16 +9792,16 @@
         <v>45660.122320949071</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F296" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G296" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
@@ -9815,16 +9815,16 @@
         <v>45660.126140335648</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
@@ -9838,16 +9838,16 @@
         <v>45660.129959722224</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F298" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G298" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
@@ -9861,16 +9861,16 @@
         <v>45660.133779108794</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.2">
@@ -9884,16 +9884,16 @@
         <v>45660.13759849537</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F300" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G300" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
@@ -9907,16 +9907,16 @@
         <v>45660.141417881947</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
@@ -9930,16 +9930,16 @@
         <v>45660.145237268516</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F302" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G302" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
@@ -9953,16 +9953,16 @@
         <v>45660.149056655093</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G303" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.2">
@@ -9976,16 +9976,16 @@
         <v>45660.15287604167</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F304" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G304" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.2">
@@ -9999,16 +9999,16 @@
         <v>45660.156695428239</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.2">
@@ -10022,16 +10022,16 @@
         <v>45660.160514814816</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F306" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G306" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.2">
@@ -10045,16 +10045,16 @@
         <v>45660.164334201392</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G307" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.2">
@@ -10068,16 +10068,16 @@
         <v>45660.168153587962</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F308" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G308" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.2">
@@ -10091,16 +10091,16 @@
         <v>45660.171972974538</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.2">
@@ -10114,16 +10114,16 @@
         <v>45660.175792361108</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F310" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G310" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.2">
@@ -10137,16 +10137,16 @@
         <v>45660.179611747684</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.2">
@@ -10160,16 +10160,16 @@
         <v>45660.183431134261</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F312" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G312" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.2">
@@ -10183,16 +10183,16 @@
         <v>45660.18725052083</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.2">
@@ -10206,16 +10206,16 @@
         <v>45660.191069907407</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F314" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G314" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.2">
@@ -10229,16 +10229,16 @@
         <v>45660.194889293984</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G315" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.2">
@@ -10252,16 +10252,16 @@
         <v>45660.198708680553</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F316" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G316" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.2">
@@ -10275,16 +10275,16 @@
         <v>45660.20252806713</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G317" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.2">
@@ -10298,16 +10298,16 @@
         <v>45660.206347453706</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F318" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G318" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.2">
@@ -10321,16 +10321,16 @@
         <v>45660.210166840276</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G319" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.2">
@@ -10344,16 +10344,16 @@
         <v>45660.213986226852</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F320" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G320" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.2">
@@ -10367,16 +10367,16 @@
         <v>45660.217805613429</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.2">
@@ -10390,16 +10390,16 @@
         <v>45660.221624999998</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F322" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G322" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.2">
@@ -10413,16 +10413,16 @@
         <v>45660.225444386575</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.2">
@@ -10436,16 +10436,16 @@
         <v>45660.229263773152</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F324" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G324" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.2">
@@ -10459,16 +10459,16 @@
         <v>45660.233083159721</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.2">
@@ -10482,16 +10482,16 @@
         <v>45660.236902546298</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F326" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G326" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.2">
@@ -10505,16 +10505,16 @@
         <v>45660.240721932867</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.2">
@@ -10528,16 +10528,16 @@
         <v>45660.244541319444</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F328" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G328" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.2">
@@ -10551,16 +10551,16 @@
         <v>45660.24836070602</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G329" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.2">
@@ -10574,16 +10574,16 @@
         <v>45660.25218009259</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F330" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G330" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.2">
@@ -10597,16 +10597,16 @@
         <v>45660.255999479166</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G331" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.2">
@@ -10620,16 +10620,16 @@
         <v>45660.259818865743</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F332" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G332" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.2">
@@ -10643,16 +10643,16 @@
         <v>45660.263638252312</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G333" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.2">
@@ -10666,16 +10666,16 @@
         <v>45660.267457638889</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F334" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G334" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.2">
@@ -10689,16 +10689,16 @@
         <v>45660.271277025466</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.2">
@@ -10712,16 +10712,16 @@
         <v>45660.275096412035</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F336" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G336" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.2">
@@ -10735,16 +10735,16 @@
         <v>45660.278915798612</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G337" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.2">
@@ -10758,16 +10758,16 @@
         <v>45660.282735185188</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F338" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G338" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.2">
@@ -10781,16 +10781,16 @@
         <v>45660.286554571758</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G339" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.2">
@@ -10804,16 +10804,16 @@
         <v>45660.290373958334</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F340" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G340" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.2">
@@ -10827,16 +10827,16 @@
         <v>45660.294193344911</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G341" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.2">
@@ -10850,16 +10850,16 @@
         <v>45660.29801273148</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F342" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G342" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.2">
@@ -10873,16 +10873,16 @@
         <v>45660.301832118057</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G343" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.2">
@@ -10896,16 +10896,16 @@
         <v>45660.305651504626</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F344" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G344" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.2">
@@ -10919,16 +10919,16 @@
         <v>45660.309470891203</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G345" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.2">
@@ -10942,16 +10942,16 @@
         <v>45660.31329027778</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F346" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G346" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.2">
@@ -10965,16 +10965,16 @@
         <v>45660.317109664349</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G347" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.2">
@@ -10988,16 +10988,16 @@
         <v>45660.320929050926</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F348" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G348" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.2">
@@ -11011,16 +11011,16 @@
         <v>45660.324748437502</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G349" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.2">
@@ -11034,16 +11034,16 @@
         <v>45660.328567824072</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F350" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G350" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.2">
@@ -11057,16 +11057,16 @@
         <v>45660.332387210648</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G351" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.2">
@@ -11080,16 +11080,16 @@
         <v>45660.336206597225</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F352" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G352" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.2">
@@ -11103,16 +11103,16 @@
         <v>45660.340025983794</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G353" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.2">
@@ -11126,16 +11126,16 @@
         <v>45660.343845370371</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F354" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G354" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.2">
@@ -11149,16 +11149,16 @@
         <v>45660.347664756948</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G355" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.2">
@@ -11172,16 +11172,16 @@
         <v>45660.351484143517</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F356" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G356" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.2">
@@ -11195,16 +11195,16 @@
         <v>45660.355303530094</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G357" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.2">
@@ -11218,16 +11218,16 @@
         <v>45660.359122916663</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F358" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G358" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.2">
@@ -11241,16 +11241,16 @@
         <v>45660.36294230324</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G359" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.2">
@@ -11264,16 +11264,16 @@
         <v>45660.366761689816</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F360" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G360" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.2">
@@ -11287,16 +11287,16 @@
         <v>45660.370581076386</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G361" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.2">
@@ -11310,16 +11310,16 @@
         <v>45660.374400462963</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F362" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G362" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.2">
@@ -11333,16 +11333,16 @@
         <v>45660.378219849539</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G363" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.2">
@@ -11356,16 +11356,16 @@
         <v>45660.382039236109</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F364" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G364" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.2">
@@ -11379,16 +11379,16 @@
         <v>45660.385858622685</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G365" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.2">
@@ -11402,16 +11402,16 @@
         <v>45660.389678009262</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F366" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G366" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.2">
@@ -11425,16 +11425,16 @@
         <v>45660.393497395831</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G367" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.2">
@@ -11448,16 +11448,16 @@
         <v>45660.397316782408</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F368" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G368" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.2">
@@ -11471,16 +11471,16 @@
         <v>45660.401136168985</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G369" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.2">
@@ -11494,16 +11494,16 @@
         <v>45660.404955555554</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F370" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G370" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.2">
@@ -11517,16 +11517,16 @@
         <v>45660.408774942131</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G371" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.2">
@@ -11540,16 +11540,16 @@
         <v>45660.412594328707</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F372" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G372" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.2">
@@ -11563,16 +11563,16 @@
         <v>45660.416413715277</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F373" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G373" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.2">
@@ -11586,16 +11586,16 @@
         <v>45660.420233101853</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F374" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G374" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.2">
@@ -11609,16 +11609,16 @@
         <v>45660.424052488423</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G375" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.2">
@@ -11632,16 +11632,16 @@
         <v>45660.427871874999</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F376" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G376" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.2">
@@ -11655,16 +11655,16 @@
         <v>45660.431691261576</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G377" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.2">
@@ -11678,16 +11678,16 @@
         <v>45660.435510648145</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F378" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G378" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.2">
@@ -11701,16 +11701,16 @@
         <v>45660.435510648145</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G379" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.2">
@@ -11724,16 +11724,16 @@
         <v>45660.435510648145</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F380" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G380" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.2">
@@ -11747,16 +11747,16 @@
         <v>45660.435510648145</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G381" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.2">
@@ -11770,16 +11770,16 @@
         <v>45660.435510648145</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F382" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G382" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.2">
@@ -11793,16 +11793,16 @@
         <v>45660.435510648145</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G383" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.2">
@@ -11816,16 +11816,16 @@
         <v>45660.435510648145</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F384" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G384" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.2">
@@ -11839,16 +11839,16 @@
         <v>45660.435510648145</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G385" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.2">
@@ -11862,16 +11862,16 @@
         <v>45660.435510648145</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F386" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G386" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.2">
@@ -11885,16 +11885,16 @@
         <v>45660.435510648145</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G387" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.2">
@@ -11908,16 +11908,16 @@
         <v>45660.435510648145</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E388" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F388" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G388" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.2">
@@ -11931,16 +11931,16 @@
         <v>45660.435510648145</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="F389" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G389" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.2">
@@ -11954,16 +11954,16 @@
         <v>45660.435510648145</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F390" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G390" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.2">
@@ -11977,16 +11977,16 @@
         <v>45660.435510648145</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G391" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.2">
@@ -12000,16 +12000,16 @@
         <v>45660.435510648145</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="F392" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G392" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.2">
@@ -12023,16 +12023,16 @@
         <v>45660.435510648145</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G393" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.2">
@@ -12046,16 +12046,16 @@
         <v>45660.435510648145</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="F394" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G394" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.2">
@@ -12069,16 +12069,16 @@
         <v>45660.435510648145</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F395" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G395" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.2">
@@ -12092,16 +12092,16 @@
         <v>45660.435510648145</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E396" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F396" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G396" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.2">
@@ -12115,16 +12115,16 @@
         <v>45660.435510648145</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F397" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G397" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.2">
@@ -12138,16 +12138,16 @@
         <v>45660.435510648145</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F398" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G398" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.2">
@@ -12161,16 +12161,16 @@
         <v>45660.435510648145</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E399" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G399" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.2">
@@ -12184,16 +12184,16 @@
         <v>45660.435510648145</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F400" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G400" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.2">
@@ -12207,13 +12207,13 @@
         <v>45653.491851851853</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E401" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F401" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="G401" s="1"/>
     </row>
@@ -12228,16 +12228,16 @@
         <v>45653.507662037002</v>
       </c>
       <c r="D402" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="F402" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="G402" s="1" t="s">
         <v>791</v>
-      </c>
-      <c r="E402" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="F402" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="G402" s="1" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.2">
@@ -12251,13 +12251,13 @@
         <v>45653.517442129603</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G403" s="1"/>
     </row>
@@ -12272,13 +12272,13 @@
         <v>45653.580034722203</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E404" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F404" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="G404" s="1"/>
     </row>
@@ -12293,13 +12293,13 @@
         <v>45653.604479166701</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E405" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F405" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G405" s="1"/>
     </row>
@@ -12314,16 +12314,16 @@
         <v>45653.606898148202</v>
       </c>
       <c r="D406" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="E406" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="F406" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="G406" s="1" t="s">
         <v>795</v>
-      </c>
-      <c r="E406" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="F406" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="G406" s="1" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.2">
@@ -12337,13 +12337,13 @@
         <v>45653.680937500001</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E407" s="1" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="G407" s="1"/>
     </row>
@@ -12358,16 +12358,16 @@
         <v>45653.681724536997</v>
       </c>
       <c r="D408" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="F408" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="G408" s="1" t="s">
         <v>799</v>
-      </c>
-      <c r="E408" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="F408" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="G408" s="1" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.2">
@@ -12381,13 +12381,13 @@
         <v>45653.681828703702</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E409" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="G409" s="1"/>
     </row>
@@ -12402,16 +12402,16 @@
         <v>45653.681863425903</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F410" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="G410" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.2">
@@ -12425,16 +12425,16 @@
         <v>45653.6820717593</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F411" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="G411" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.2">
@@ -12448,13 +12448,13 @@
         <v>45653.682083333297</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E412" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="F412" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="G412" s="1"/>
     </row>
@@ -12469,16 +12469,16 @@
         <v>45653.682256944398</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E413" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="F413" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G413" s="1" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.2">
@@ -12492,13 +12492,13 @@
         <v>45658.979930555601</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E414" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F414" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="G414" s="1"/>
     </row>
@@ -12513,13 +12513,13 @@
         <v>45658.989988425899</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E415" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F415" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G415" s="1"/>
     </row>
